--- a/src/main/resources/csv/equip.xlsx
+++ b/src/main/resources/csv/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22703" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>equipId</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>hpUp</t>
+  </si>
+  <si>
+    <t>armor</t>
   </si>
   <si>
     <t>durability</t>
@@ -123,12 +126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +155,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +260,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,44 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -257,28 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -286,14 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,12 +306,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,55 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,103 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +508,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -559,6 +558,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,166 +591,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1077,7 +1073,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,13 +1104,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -1135,18 +1134,21 @@
         <v>10</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1167,18 +1169,21 @@
         <v>20</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1199,18 +1204,21 @@
         <v>30</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>70</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -1231,18 +1239,21 @@
         <v>40</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>114</v>
@@ -1263,18 +1274,21 @@
         <v>100</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10020</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -1295,18 +1309,21 @@
         <v>10</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10021</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -1327,18 +1344,21 @@
         <v>20</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>40</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10022</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -1359,18 +1379,21 @@
         <v>40</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>50</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10031</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>114</v>
@@ -1391,18 +1414,21 @@
         <v>90</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10051</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -1423,18 +1449,21 @@
         <v>10</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>30</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>10052</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -1455,18 +1484,21 @@
         <v>50</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>40</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>10053</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -1487,18 +1519,21 @@
         <v>80</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>60</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>10054</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -1519,18 +1554,21 @@
         <v>100</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>10071</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>200</v>
@@ -1551,18 +1589,21 @@
         <v>10</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>30</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>10072</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>200</v>
@@ -1583,18 +1624,21 @@
         <v>20</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>50</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>10073</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -1615,18 +1659,21 @@
         <v>30</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>70</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>10074</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -1647,18 +1694,21 @@
         <v>40</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>80</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>10075</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -1679,18 +1729,21 @@
         <v>100</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>100</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>10091</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>200</v>
@@ -1711,18 +1764,21 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>30</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>10092</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1743,18 +1799,21 @@
         <v>10</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>40</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>10093</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -1775,18 +1834,21 @@
         <v>15</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>50</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>10094</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -1807,18 +1869,21 @@
         <v>20</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>60</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>10095</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>200</v>
@@ -1839,18 +1904,21 @@
         <v>20</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>80</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>10096</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>111</v>
@@ -1871,9 +1939,12 @@
         <v>50</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>100</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/csv/equip.xlsx
+++ b/src/main/resources/csv/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22703" windowHeight="9647"/>
+    <workbookView windowWidth="20448" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -148,21 +148,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +177,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,14 +253,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -215,29 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -246,14 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,30 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,13 +300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,19 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,145 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +491,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,51 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1609,7 +1609,7 @@
         <v>200</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         <v>200</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -1679,7 +1679,7 @@
         <v>200</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -1714,7 +1714,7 @@
         <v>114</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>50</v>

--- a/src/main/resources/csv/equip.xlsx
+++ b/src/main/resources/csv/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20448" windowHeight="8484"/>
+    <workbookView windowWidth="17088" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>equipId</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>minTrans</t>
   </si>
   <si>
     <t>破旧的头盔</t>
@@ -126,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,7 +151,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +228,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,27 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -205,91 +293,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,13 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,169 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,26 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +524,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,20 +573,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1073,7 +1076,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,13 +1110,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -1142,13 +1148,16 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1177,13 +1186,16 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1212,13 +1224,16 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -1247,13 +1262,16 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>114</v>
@@ -1282,13 +1300,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10020</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -1317,13 +1338,16 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10021</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -1352,13 +1376,16 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10022</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -1387,13 +1414,16 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10031</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>114</v>
@@ -1422,13 +1452,16 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>10051</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -1457,13 +1490,16 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>10052</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -1492,13 +1528,16 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>10053</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -1527,13 +1566,16 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>10054</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -1562,13 +1604,16 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>10071</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>200</v>
@@ -1597,13 +1642,16 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>10072</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>200</v>
@@ -1632,13 +1680,16 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>10073</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -1667,13 +1718,16 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>10074</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -1702,13 +1756,16 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>10075</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -1737,13 +1794,16 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>10091</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>200</v>
@@ -1772,13 +1832,16 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>10092</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1807,13 +1870,16 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>10093</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -1842,13 +1908,16 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>10094</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -1877,13 +1946,16 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>10095</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>200</v>
@@ -1912,13 +1984,16 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>10096</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>111</v>
@@ -1946,6 +2021,9 @@
       </c>
       <c r="K37">
         <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
